--- a/WebContent/WEB-INF/template/旅客信息表.xlsx
+++ b/WebContent/WEB-INF/template/旅客信息表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>客户账号</t>
   </si>
@@ -47,31 +47,7 @@
     <t>国籍</t>
   </si>
   <si>
-    <t>微信openID</t>
-  </si>
-  <si>
     <t>aaaaa</t>
-  </si>
-  <si>
-    <t>香梨</t>
-  </si>
-  <si>
-    <t>身份证</t>
-  </si>
-  <si>
-    <t>460012355235</t>
-  </si>
-  <si>
-    <t>儿童</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>o6aJlwt09GrOJtTO_5tkyasaTLwk</t>
   </si>
 </sst>
 </file>
@@ -79,10 +55,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -93,6 +69,120 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,120 +212,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -251,31 +227,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,151 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,26 +436,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +462,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,17 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,148 +538,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -719,9 +695,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1107,17 +1080,16 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1130,7 +1102,7 @@
     <col min="11" max="11" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,44 +1133,15 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2">
-        <v>12334567</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2">
-        <v>12233344</v>
-      </c>
-      <c r="E2" s="3">
-        <v>40545</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
